--- a/data/trans_orig/IP2002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2C3D9A-3675-419B-9C7C-73EE0B0CD412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B90507-93E1-4CB2-8DF3-5137B4B00537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E07B06B9-3343-4AA5-9ECF-4A5B5B06C9FA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CF03BE98-67B6-468D-BBA2-228278C18FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,120 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>91,32%</t>
   </si>
   <si>
@@ -101,9 +209,6 @@
     <t>93,62%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>8,68%</t>
   </si>
   <si>
@@ -131,64 +236,61 @@
     <t>10,73%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,108 +350,6 @@
     <t>8,49%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
     <t>92,72%</t>
   </si>
   <si>
@@ -407,6 +407,102 @@
     <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
   </si>
   <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
     <t>92,93%</t>
   </si>
   <si>
@@ -455,58 +551,52 @@
     <t>9,97%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>95,2%</t>
@@ -518,9 +608,6 @@
     <t>97,53%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
     <t>94,96%</t>
   </si>
   <si>
@@ -542,9 +629,6 @@
     <t>8,2%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
@@ -557,90 +641,6 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
     <t>93,07%</t>
   </si>
   <si>
@@ -698,6 +698,90 @@
     <t>Menores según si le han extraido dientes o muelas por algún motivo en 2015 (Tasa respuesta: 93,51%)</t>
   </si>
   <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
     <t>94,24%</t>
   </si>
   <si>
@@ -746,52 +830,58 @@
     <t>8,37%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>94,45%</t>
@@ -812,9 +902,6 @@
     <t>95,15%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
     <t>91,11%</t>
   </si>
   <si>
@@ -839,99 +926,12 @@
     <t>11,42%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
     <t>4,57%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
     <t>95,19%</t>
   </si>
   <si>
@@ -989,12 +989,96 @@
     <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
   </si>
   <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
     <t>97,08%</t>
   </si>
   <si>
@@ -1022,9 +1106,6 @@
     <t>2,92%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
     <t>7,22%</t>
   </si>
   <si>
@@ -1043,52 +1124,40 @@
     <t>7,97%</t>
   </si>
   <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>96,11%</t>
@@ -1131,75 +1200,6 @@
   </si>
   <si>
     <t>7,48%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
   </si>
   <si>
     <t>95,13%</t>
@@ -1639,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200857BB-2149-4380-9C36-905E13CD8E23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1147ABBA-F67A-431C-93CA-76391530D58A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1757,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>186490</v>
+        <v>21287</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1772,10 +1772,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>170457</v>
+        <v>21177</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1784,73 +1784,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>55</v>
+      </c>
+      <c r="N4" s="7">
+        <v>42464</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>557</v>
-      </c>
-      <c r="N4" s="7">
-        <v>356948</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>961</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7">
-        <v>17732</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>833</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1794</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="7">
-        <v>15327</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>50</v>
-      </c>
-      <c r="N5" s="7">
-        <v>33059</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,54 +1859,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>204222</v>
+        <v>22248</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>185784</v>
+        <v>22010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>607</v>
+        <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>390007</v>
+        <v>44258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1918,13 +1918,13 @@
         <v>111017</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>150</v>
@@ -1933,13 +1933,13 @@
         <v>100434</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>319</v>
@@ -1948,19 +1948,19 @@
         <v>211452</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>15</v>
@@ -1969,13 +1969,13 @@
         <v>10242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -1984,13 +1984,13 @@
         <v>6562</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -1999,13 +1999,13 @@
         <v>16804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2020,13 @@
         <v>121259</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
@@ -2035,13 +2035,13 @@
         <v>106996</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>344</v>
@@ -2050,117 +2050,117 @@
         <v>228256</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D10" s="7">
-        <v>188574</v>
+        <v>186490</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7">
+        <v>273</v>
+      </c>
+      <c r="I10" s="7">
+        <v>170457</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>557</v>
+      </c>
+      <c r="N10" s="7">
+        <v>356948</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>241</v>
-      </c>
-      <c r="I10" s="7">
-        <v>184336</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>518</v>
-      </c>
-      <c r="N10" s="7">
-        <v>372911</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>9378</v>
+        <v>17732</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>15327</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>50</v>
+      </c>
+      <c r="N11" s="7">
+        <v>33059</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15182</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>34</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24559</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,150 +2169,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>197952</v>
+        <v>204222</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>199518</v>
+        <v>185784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>607</v>
       </c>
       <c r="N12" s="7">
-        <v>397470</v>
+        <v>390007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="D13" s="7">
-        <v>21287</v>
+        <v>127776</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7">
+        <v>204</v>
+      </c>
+      <c r="I13" s="7">
+        <v>122815</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>402</v>
+      </c>
+      <c r="N13" s="7">
+        <v>250591</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21177</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>55</v>
-      </c>
-      <c r="N13" s="7">
-        <v>42464</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>961</v>
+        <v>11566</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7917</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>833</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>31</v>
+      </c>
+      <c r="N14" s="7">
+        <v>19483</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1794</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>83</v>
@@ -2324,49 +2324,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7">
-        <v>22248</v>
+        <v>139342</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="I15" s="7">
-        <v>22010</v>
+        <v>130732</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>57</v>
+        <v>433</v>
       </c>
       <c r="N15" s="7">
-        <v>44258</v>
+        <v>270074</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,10 +2377,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="D16" s="7">
-        <v>127776</v>
+        <v>188574</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -2392,10 +2392,10 @@
         <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I16" s="7">
-        <v>122815</v>
+        <v>184336</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>88</v>
@@ -2407,10 +2407,10 @@
         <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>402</v>
+        <v>518</v>
       </c>
       <c r="N16" s="7">
-        <v>250591</v>
+        <v>372911</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>91</v>
@@ -2425,13 +2425,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>11566</v>
+        <v>9378</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>94</v>
@@ -2443,10 +2443,10 @@
         <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>7917</v>
+        <v>15182</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -2458,10 +2458,10 @@
         <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>19483</v>
+        <v>24559</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -2479,49 +2479,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="D18" s="7">
-        <v>139342</v>
+        <v>197952</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>130732</v>
+        <v>199518</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>433</v>
+        <v>552</v>
       </c>
       <c r="N18" s="7">
-        <v>270074</v>
+        <v>397470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>74</v>
@@ -2640,13 +2640,13 @@
         <v>685023</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>963</v>
@@ -2655,13 +2655,13 @@
         <v>645040</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1993</v>
@@ -2670,13 +2670,13 @@
         <v>1330063</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1056FA-936E-449C-AEED-C7892E0D2BA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDCF1AE-88AA-41C5-A456-084C7C4AC47B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,10 +2815,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>286</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>197709</v>
+        <v>21546</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>122</v>
@@ -2827,88 +2827,88 @@
         <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18976</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H4" s="7">
-        <v>272</v>
-      </c>
-      <c r="I4" s="7">
-        <v>175501</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>46</v>
+      </c>
+      <c r="N4" s="7">
+        <v>40522</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="7">
-        <v>558</v>
-      </c>
-      <c r="N4" s="7">
-        <v>373210</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2156</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7">
-        <v>15044</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1821</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16018</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3977</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="7">
-        <v>46</v>
-      </c>
-      <c r="N5" s="7">
-        <v>31062</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,54 +2917,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>212753</v>
+        <v>23702</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>191519</v>
+        <v>20797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>604</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>404272</v>
+        <v>44499</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2976,13 +2976,13 @@
         <v>107185</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>150</v>
@@ -2991,13 +2991,13 @@
         <v>107527</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>302</v>
@@ -3006,19 +3006,19 @@
         <v>214712</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>15</v>
@@ -3027,13 +3027,13 @@
         <v>10500</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -3042,13 +3042,13 @@
         <v>4844</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3057,13 +3057,13 @@
         <v>15344</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3078,13 @@
         <v>117685</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>157</v>
@@ -3093,13 +3093,13 @@
         <v>112371</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>324</v>
@@ -3108,117 +3108,117 @@
         <v>230056</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="D10" s="7">
-        <v>186852</v>
+        <v>197709</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>272</v>
+      </c>
+      <c r="I10" s="7">
+        <v>175501</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H10" s="7">
-        <v>246</v>
-      </c>
-      <c r="I10" s="7">
-        <v>188866</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>558</v>
+      </c>
+      <c r="N10" s="7">
+        <v>373210</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="M10" s="7">
-        <v>500</v>
-      </c>
-      <c r="N10" s="7">
-        <v>375717</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>9414</v>
+        <v>15044</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>16018</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4681</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>46</v>
+      </c>
+      <c r="N11" s="7">
+        <v>31062</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M11" s="7">
-        <v>18</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14096</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,93 +3227,93 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D12" s="7">
-        <v>196266</v>
+        <v>212753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="I12" s="7">
-        <v>193547</v>
+        <v>191519</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>518</v>
+        <v>604</v>
       </c>
       <c r="N12" s="7">
-        <v>389813</v>
+        <v>404272</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="D13" s="7">
-        <v>21546</v>
+        <v>140724</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>211</v>
+      </c>
+      <c r="I13" s="7">
+        <v>135351</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18976</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>431</v>
       </c>
       <c r="N13" s="7">
-        <v>40522</v>
+        <v>276075</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>176</v>
@@ -3322,58 +3322,58 @@
         <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>2156</v>
+        <v>11569</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>1821</v>
+        <v>9307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N14" s="7">
-        <v>3977</v>
+        <v>20876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,49 +3382,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>23702</v>
+        <v>152293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>20797</v>
+        <v>144658</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>44499</v>
+        <v>296951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,79 +3435,79 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="D16" s="7">
-        <v>140724</v>
+        <v>186852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="I16" s="7">
-        <v>135351</v>
+        <v>188866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="N16" s="7">
-        <v>276075</v>
+        <v>375717</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>11569</v>
+        <v>9414</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>9307</v>
+        <v>4681</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>196</v>
@@ -3516,19 +3516,19 @@
         <v>197</v>
       </c>
       <c r="M17" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>20876</v>
+        <v>14096</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,49 +3537,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="D18" s="7">
-        <v>152293</v>
+        <v>196266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>144658</v>
+        <v>193547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="N18" s="7">
-        <v>296951</v>
+        <v>389813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,7 +3638,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>67</v>
@@ -3698,13 +3698,13 @@
         <v>702699</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>954</v>
@@ -3713,13 +3713,13 @@
         <v>662891</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1957</v>
@@ -3728,13 +3728,13 @@
         <v>1365591</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3755,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BEB8AE-49FB-410F-B2CA-A06EFC13E78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98757EF-E093-414C-9FA2-1260CE3299EE}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,10 +3873,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>198546</v>
+        <v>22108</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>219</v>
@@ -3885,88 +3885,88 @@
         <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19417</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="7">
-        <v>288</v>
-      </c>
-      <c r="I4" s="7">
-        <v>179610</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>41525</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="7">
-        <v>582</v>
-      </c>
-      <c r="N4" s="7">
-        <v>378157</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>671</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7">
-        <v>12131</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2066</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2737</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H5" s="7">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13902</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M5" s="7">
-        <v>39</v>
-      </c>
-      <c r="N5" s="7">
-        <v>26032</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,54 +3975,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>210677</v>
+        <v>22779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>193512</v>
+        <v>21483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>621</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>404189</v>
+        <v>44262</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4034,13 +4034,13 @@
         <v>111637</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -4049,13 +4049,13 @@
         <v>98409</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -4064,19 +4064,19 @@
         <v>210045</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -4085,13 +4085,13 @@
         <v>4694</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4100,13 +4100,13 @@
         <v>4778</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4115,13 +4115,13 @@
         <v>9472</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4136,13 @@
         <v>116331</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -4151,13 +4151,13 @@
         <v>103187</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -4166,117 +4166,117 @@
         <v>219517</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>294</v>
+      </c>
+      <c r="D10" s="7">
+        <v>198546</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="7">
+        <v>288</v>
+      </c>
+      <c r="I10" s="7">
+        <v>179610</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="7">
+        <v>582</v>
+      </c>
+      <c r="N10" s="7">
+        <v>378157</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="D10" s="7">
-        <v>180091</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" s="7">
-        <v>242</v>
-      </c>
-      <c r="I10" s="7">
-        <v>177984</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M10" s="7">
-        <v>496</v>
-      </c>
-      <c r="N10" s="7">
-        <v>358074</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>10590</v>
+        <v>12131</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="7">
+        <v>22</v>
+      </c>
+      <c r="I11" s="7">
+        <v>13902</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M11" s="7">
+        <v>39</v>
+      </c>
+      <c r="N11" s="7">
+        <v>26032</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14499</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M11" s="7">
-        <v>33</v>
-      </c>
-      <c r="N11" s="7">
-        <v>25089</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,147 +4285,147 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D12" s="7">
-        <v>190681</v>
+        <v>210677</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="I12" s="7">
-        <v>192483</v>
+        <v>193512</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>529</v>
+        <v>621</v>
       </c>
       <c r="N12" s="7">
-        <v>383163</v>
+        <v>404189</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7">
-        <v>22108</v>
+        <v>154797</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="7">
+        <v>235</v>
+      </c>
+      <c r="I13" s="7">
+        <v>142478</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M13" s="7">
+        <v>465</v>
+      </c>
+      <c r="N13" s="7">
+        <v>297274</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19417</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>47</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41525</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>671</v>
+        <v>5630</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5689</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2066</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>17</v>
+      </c>
+      <c r="N14" s="7">
+        <v>11320</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2737</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>279</v>
@@ -4440,49 +4440,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>22779</v>
+        <v>160427</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="I15" s="7">
-        <v>21483</v>
+        <v>148167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>482</v>
       </c>
       <c r="N15" s="7">
-        <v>44262</v>
+        <v>308594</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,43 +4493,43 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D16" s="7">
-        <v>154797</v>
+        <v>180091</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="I16" s="7">
-        <v>142478</v>
+        <v>177984</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="N16" s="7">
-        <v>297274</v>
+        <v>358074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>287</v>
@@ -4541,13 +4541,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>5630</v>
+        <v>10590</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>289</v>
@@ -4556,31 +4556,31 @@
         <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>5689</v>
+        <v>14499</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>11320</v>
+        <v>25089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>295</v>
@@ -4595,49 +4595,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>160427</v>
+        <v>190681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>148167</v>
+        <v>192483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>308594</v>
+        <v>383163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +4696,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>46</v>
@@ -4756,13 +4756,13 @@
         <v>700895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>988</v>
@@ -4771,13 +4771,13 @@
         <v>658831</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1988</v>
@@ -4786,13 +4786,13 @@
         <v>1359726</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4813,7 +4813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34590894-5F24-4BF9-A624-13B10D041855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F38814-AB26-4341-9E93-82DE048507C8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4931,100 +4931,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>232378</v>
+        <v>11430</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15170</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H4" s="7">
-        <v>253</v>
-      </c>
-      <c r="I4" s="7">
-        <v>175187</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>43</v>
+      </c>
+      <c r="N4" s="7">
+        <v>26600</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M4" s="7">
-        <v>564</v>
-      </c>
-      <c r="N4" s="7">
-        <v>407565</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7">
-        <v>12060</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1617</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1617</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H5" s="7">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13629</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M5" s="7">
-        <v>36</v>
-      </c>
-      <c r="N5" s="7">
-        <v>25689</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,54 +5033,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>328</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>244438</v>
+        <v>11430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>188816</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>600</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>433254</v>
+        <v>28217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5092,13 +5092,13 @@
         <v>108130</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -5107,13 +5107,13 @@
         <v>97762</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>295</v>
@@ -5122,19 +5122,19 @@
         <v>205893</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -5143,13 +5143,13 @@
         <v>4262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5158,13 +5158,13 @@
         <v>3887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -5173,13 +5173,13 @@
         <v>8148</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5194,13 @@
         <v>112392</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -5209,13 +5209,13 @@
         <v>101649</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -5224,117 +5224,117 @@
         <v>214041</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="D10" s="7">
-        <v>165253</v>
+        <v>232378</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H10" s="7">
+        <v>253</v>
+      </c>
+      <c r="I10" s="7">
+        <v>175187</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M10" s="7">
+        <v>564</v>
+      </c>
+      <c r="N10" s="7">
+        <v>407565</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="H10" s="7">
-        <v>222</v>
-      </c>
-      <c r="I10" s="7">
-        <v>159380</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="7">
-        <v>446</v>
-      </c>
-      <c r="N10" s="7">
-        <v>324634</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>6692</v>
+        <v>12060</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" s="7">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7">
+        <v>13629</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>36</v>
+      </c>
+      <c r="N11" s="7">
+        <v>25689</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10667</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="M11" s="7">
-        <v>23</v>
-      </c>
-      <c r="N11" s="7">
-        <v>17358</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,153 +5343,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>233</v>
+        <v>328</v>
       </c>
       <c r="D12" s="7">
-        <v>171945</v>
+        <v>244438</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>170047</v>
+        <v>188816</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>469</v>
+        <v>600</v>
       </c>
       <c r="N12" s="7">
-        <v>341992</v>
+        <v>433254</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="D13" s="7">
-        <v>11430</v>
+        <v>160013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H13" s="7">
+        <v>211</v>
+      </c>
+      <c r="I13" s="7">
+        <v>157216</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15170</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" s="7">
+        <v>418</v>
+      </c>
+      <c r="N13" s="7">
+        <v>317228</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>43</v>
-      </c>
-      <c r="N13" s="7">
-        <v>26600</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>11644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9065</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1617</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>26</v>
+      </c>
+      <c r="N14" s="7">
+        <v>20710</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1617</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,49 +5498,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="D15" s="7">
-        <v>11430</v>
+        <v>171657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>166281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="N15" s="7">
-        <v>28217</v>
+        <v>337938</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,97 +5551,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D16" s="7">
-        <v>160013</v>
+        <v>165253</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>222</v>
+      </c>
+      <c r="I16" s="7">
+        <v>159380</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M16" s="7">
+        <v>446</v>
+      </c>
+      <c r="N16" s="7">
+        <v>324634</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H16" s="7">
-        <v>211</v>
-      </c>
-      <c r="I16" s="7">
-        <v>157216</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M16" s="7">
-        <v>418</v>
-      </c>
-      <c r="N16" s="7">
-        <v>317228</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6692</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H17" s="7">
         <v>14</v>
       </c>
-      <c r="D17" s="7">
-        <v>11644</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>10667</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H17" s="7">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9065</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>23</v>
+      </c>
+      <c r="N17" s="7">
+        <v>17358</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="M17" s="7">
-        <v>26</v>
-      </c>
-      <c r="N17" s="7">
-        <v>20710</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>386</v>
@@ -5653,49 +5653,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>171657</v>
+        <v>171945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I18" s="7">
-        <v>166281</v>
+        <v>170047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N18" s="7">
-        <v>337938</v>
+        <v>341992</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,7 +5745,7 @@
         <v>393</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>394</v>
@@ -5754,7 +5754,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>47</v>
@@ -5799,7 +5799,7 @@
         <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5814,13 @@
         <v>711863</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>921</v>
@@ -5829,13 +5829,13 @@
         <v>643580</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1867</v>
@@ -5844,13 +5844,13 @@
         <v>1355442</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B90507-93E1-4CB2-8DF3-5137B4B00537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D950A80-71C8-4745-AF9C-8AF434135B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CF03BE98-67B6-468D-BBA2-228278C18FF3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{45D458E9-AB6D-4BA4-BBEE-455F77D301FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
   <si>
     <t>Menores según si le han extraido dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
@@ -71,13 +71,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>79,14%</t>
+    <t>73,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,37 +110,13 @@
     <t>96,22%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>83,99%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>87,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,1129 +125,1114 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
     <t>91,55%</t>
   </si>
   <si>
-    <t>86,54%</t>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2015 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>93,73%</t>
   </si>
   <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>92,08%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1243,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1354,39 +1339,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1438,7 +1423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1549,13 +1534,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1564,6 +1542,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1628,19 +1613,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1147ABBA-F67A-431C-93CA-76391530D58A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C250C7F-92CF-432E-848D-77B4DBE7EE18}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1757,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>21287</v>
+        <v>961</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1772,34 +1777,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21177</v>
+        <v>833</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>42464</v>
+        <v>1794</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,10 +1813,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>961</v>
+        <v>21287</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1823,34 +1828,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>833</v>
+        <v>21177</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>1794</v>
+        <v>42464</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,10 +1917,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>111017</v>
+        <v>10242</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1927,10 +1932,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>100434</v>
+        <v>6562</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1942,10 +1947,10 @@
         <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>211452</v>
+        <v>16804</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
@@ -1963,10 +1968,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="D8" s="7">
-        <v>10242</v>
+        <v>111017</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1978,10 +1983,10 @@
         <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="I8" s="7">
-        <v>6562</v>
+        <v>100434</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1993,10 +1998,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>319</v>
       </c>
       <c r="N8" s="7">
-        <v>16804</v>
+        <v>211452</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -2067,10 +2072,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>186490</v>
+        <v>17732</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -2082,10 +2087,10 @@
         <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>170457</v>
+        <v>15327</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>50</v>
@@ -2097,10 +2102,10 @@
         <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>557</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>356948</v>
+        <v>33059</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>53</v>
@@ -2118,10 +2123,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="D11" s="7">
-        <v>17732</v>
+        <v>186490</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
@@ -2133,10 +2138,10 @@
         <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="I11" s="7">
-        <v>15327</v>
+        <v>170457</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>59</v>
@@ -2148,10 +2153,10 @@
         <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>50</v>
+        <v>557</v>
       </c>
       <c r="N11" s="7">
-        <v>33059</v>
+        <v>356948</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -2222,10 +2227,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>127776</v>
+        <v>11566</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>66</v>
@@ -2237,10 +2242,10 @@
         <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>122815</v>
+        <v>7917</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>69</v>
@@ -2252,10 +2257,10 @@
         <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>402</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>250591</v>
+        <v>19483</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>72</v>
@@ -2273,10 +2278,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>11566</v>
+        <v>127776</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>75</v>
@@ -2288,10 +2293,10 @@
         <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="I14" s="7">
-        <v>7917</v>
+        <v>122815</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>78</v>
@@ -2303,10 +2308,10 @@
         <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>31</v>
+        <v>402</v>
       </c>
       <c r="N14" s="7">
-        <v>19483</v>
+        <v>250591</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>81</v>
@@ -2377,10 +2382,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>188574</v>
+        <v>9378</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -2392,34 +2397,34 @@
         <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>184336</v>
+        <v>15182</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>34</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24559</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="7">
-        <v>518</v>
-      </c>
-      <c r="N16" s="7">
-        <v>372911</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,49 +2433,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>9378</v>
+        <v>188574</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>241</v>
+      </c>
+      <c r="I17" s="7">
+        <v>184336</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="7">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15182</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="7">
+        <v>518</v>
+      </c>
+      <c r="N17" s="7">
+        <v>372911</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="7">
-        <v>34</v>
-      </c>
-      <c r="N17" s="7">
-        <v>24559</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,49 +2537,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>956</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7">
-        <v>635144</v>
+        <v>49879</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>68</v>
+      </c>
+      <c r="I19" s="7">
+        <v>45821</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="7">
-        <v>895</v>
-      </c>
-      <c r="I19" s="7">
-        <v>599219</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>142</v>
+      </c>
+      <c r="N19" s="7">
+        <v>95700</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M19" s="7">
-        <v>1851</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1234363</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,49 +2588,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>74</v>
+        <v>956</v>
       </c>
       <c r="D20" s="7">
-        <v>49879</v>
+        <v>635144</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>895</v>
+      </c>
+      <c r="I20" s="7">
+        <v>599219</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="7">
-        <v>68</v>
-      </c>
-      <c r="I20" s="7">
-        <v>45821</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1851</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1234363</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M20" s="7">
-        <v>142</v>
-      </c>
-      <c r="N20" s="7">
-        <v>95700</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,6 +2682,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2697,8 +2707,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDCF1AE-88AA-41C5-A456-084C7C4AC47B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3EE27F-72B1-48EA-B92F-8AB1FE559433}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2714,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2815,49 +2825,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>21546</v>
+        <v>2156</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1821</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>22</v>
-      </c>
-      <c r="I4" s="7">
-        <v>18976</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3977</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>46</v>
-      </c>
-      <c r="N4" s="7">
-        <v>40522</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,49 +2876,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>2156</v>
+        <v>21546</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18976</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1821</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>46</v>
+      </c>
+      <c r="N5" s="7">
+        <v>40522</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3977</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,49 +2980,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>107185</v>
+        <v>10500</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4844</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="7">
-        <v>150</v>
-      </c>
-      <c r="I7" s="7">
-        <v>107527</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>22</v>
+      </c>
+      <c r="N7" s="7">
+        <v>15344</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M7" s="7">
-        <v>302</v>
-      </c>
-      <c r="N7" s="7">
-        <v>214712</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,49 +3031,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>10500</v>
+        <v>107185</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>150</v>
+      </c>
+      <c r="I8" s="7">
+        <v>107527</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4844</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>302</v>
+      </c>
+      <c r="N8" s="7">
+        <v>214712</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="7">
-        <v>22</v>
-      </c>
-      <c r="N8" s="7">
-        <v>15344</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,28 +3135,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>197709</v>
+        <v>15044</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16018</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="H10" s="7">
-        <v>272</v>
-      </c>
-      <c r="I10" s="7">
-        <v>175501</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>157</v>
@@ -3155,10 +3165,10 @@
         <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>558</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>373210</v>
+        <v>31062</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>159</v>
@@ -3176,10 +3186,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="D11" s="7">
-        <v>15044</v>
+        <v>197709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>162</v>
@@ -3191,34 +3201,34 @@
         <v>164</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>16018</v>
+        <v>175501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
-        <v>46</v>
+        <v>558</v>
       </c>
       <c r="N11" s="7">
-        <v>31062</v>
+        <v>373210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,49 +3290,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>140724</v>
+        <v>11569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>135351</v>
+        <v>9307</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
-        <v>431</v>
+        <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>276075</v>
+        <v>20876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,49 +3341,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="D14" s="7">
-        <v>11569</v>
+        <v>140724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="I14" s="7">
-        <v>9307</v>
+        <v>135351</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>431</v>
       </c>
       <c r="N14" s="7">
-        <v>20876</v>
+        <v>276075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,49 +3445,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>186852</v>
+        <v>9414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>188866</v>
+        <v>4681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
-        <v>500</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>375717</v>
+        <v>14096</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,49 +3496,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="D17" s="7">
-        <v>9414</v>
+        <v>186852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="I17" s="7">
-        <v>4681</v>
+        <v>188866</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="N17" s="7">
-        <v>14096</v>
+        <v>375717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,49 +3600,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>936</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7">
-        <v>654015</v>
+        <v>48684</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
-        <v>901</v>
+        <v>53</v>
       </c>
       <c r="I19" s="7">
-        <v>626219</v>
+        <v>36672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
-        <v>1837</v>
+        <v>120</v>
       </c>
       <c r="N19" s="7">
-        <v>1280235</v>
+        <v>85356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,49 +3651,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>67</v>
+        <v>936</v>
       </c>
       <c r="D20" s="7">
-        <v>48684</v>
+        <v>654015</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
-        <v>53</v>
+        <v>901</v>
       </c>
       <c r="I20" s="7">
-        <v>36672</v>
+        <v>626219</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
-        <v>120</v>
+        <v>1837</v>
       </c>
       <c r="N20" s="7">
-        <v>85356</v>
+        <v>1280235</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,6 +3745,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3755,8 +3770,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98757EF-E093-414C-9FA2-1260CE3299EE}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B431A0-1BE3-48C6-ABA0-66B68DE4A5C1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3772,7 +3787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3873,49 +3888,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>22108</v>
+        <v>671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>19417</v>
+        <v>2066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>41525</v>
+        <v>2737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,49 +3939,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>671</v>
+        <v>22108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>2066</v>
+        <v>19417</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>2737</v>
+        <v>41525</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,49 +4043,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>111637</v>
+        <v>4694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>98409</v>
+        <v>4778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>210045</v>
+        <v>9472</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,49 +4094,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7">
-        <v>4694</v>
+        <v>111637</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="I8" s="7">
-        <v>4778</v>
+        <v>98409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="N8" s="7">
-        <v>9472</v>
+        <v>210045</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4198,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>198546</v>
+        <v>12131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>248</v>
@@ -4198,10 +4213,10 @@
         <v>249</v>
       </c>
       <c r="H10" s="7">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>179610</v>
+        <v>13902</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>250</v>
@@ -4210,22 +4225,22 @@
         <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
-        <v>582</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>378157</v>
+        <v>26032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4249,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="D11" s="7">
-        <v>12131</v>
+        <v>198546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>256</v>
@@ -4249,34 +4264,34 @@
         <v>257</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I11" s="7">
-        <v>13902</v>
+        <v>179610</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
-        <v>39</v>
+        <v>582</v>
       </c>
       <c r="N11" s="7">
-        <v>26032</v>
+        <v>378157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,49 +4353,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>154797</v>
+        <v>5630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>142478</v>
+        <v>5689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="7">
+        <v>17</v>
+      </c>
+      <c r="N13" s="7">
+        <v>11320</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="M13" s="7">
-        <v>465</v>
-      </c>
-      <c r="N13" s="7">
-        <v>297274</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,49 +4404,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>5630</v>
+        <v>154797</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>235</v>
+      </c>
+      <c r="I14" s="7">
+        <v>142478</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5689</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M14" s="7">
+        <v>465</v>
+      </c>
+      <c r="N14" s="7">
+        <v>297274</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="M14" s="7">
-        <v>17</v>
-      </c>
-      <c r="N14" s="7">
-        <v>11320</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,49 +4508,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>180091</v>
+        <v>10590</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="7">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7">
+        <v>14499</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H16" s="7">
-        <v>242</v>
-      </c>
-      <c r="I16" s="7">
-        <v>177984</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>33</v>
+      </c>
+      <c r="N16" s="7">
+        <v>25089</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="M16" s="7">
-        <v>496</v>
-      </c>
-      <c r="N16" s="7">
-        <v>358074</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,49 +4559,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="D17" s="7">
-        <v>10590</v>
+        <v>180091</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>242</v>
+      </c>
+      <c r="I17" s="7">
+        <v>177984</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14499</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>496</v>
+      </c>
+      <c r="N17" s="7">
+        <v>358074</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="M17" s="7">
-        <v>33</v>
-      </c>
-      <c r="N17" s="7">
-        <v>25089</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,49 +4663,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>954</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>667179</v>
+        <v>33716</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>59</v>
+      </c>
+      <c r="I19" s="7">
+        <v>40933</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H19" s="7">
-        <v>929</v>
-      </c>
-      <c r="I19" s="7">
-        <v>617898</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>105</v>
+      </c>
+      <c r="N19" s="7">
+        <v>74649</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="M19" s="7">
-        <v>1883</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1285077</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,49 +4714,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>46</v>
+        <v>954</v>
       </c>
       <c r="D20" s="7">
-        <v>33716</v>
+        <v>667179</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="7">
+        <v>929</v>
+      </c>
+      <c r="I20" s="7">
+        <v>617898</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H20" s="7">
-        <v>59</v>
-      </c>
-      <c r="I20" s="7">
-        <v>40933</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1883</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1285077</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="M20" s="7">
-        <v>105</v>
-      </c>
-      <c r="N20" s="7">
-        <v>74649</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,6 +4808,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4813,8 +4833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F38814-AB26-4341-9E93-82DE048507C8}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25057408-EBCC-4E0A-B946-3C5A0673735F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4830,7 +4850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4931,49 +4951,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>11430</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1617</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15170</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1617</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>43</v>
-      </c>
-      <c r="N4" s="7">
-        <v>26600</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,49 +5002,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>11430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15170</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>43</v>
+      </c>
+      <c r="N5" s="7">
+        <v>26600</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1617</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1617</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,49 +5106,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>108130</v>
+        <v>4262</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3887</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>14</v>
+      </c>
+      <c r="N7" s="7">
+        <v>8148</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H7" s="7">
-        <v>155</v>
-      </c>
-      <c r="I7" s="7">
-        <v>97762</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M7" s="7">
-        <v>295</v>
-      </c>
-      <c r="N7" s="7">
-        <v>205893</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,49 +5157,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>4262</v>
+        <v>108130</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="7">
+        <v>155</v>
+      </c>
+      <c r="I8" s="7">
+        <v>97762</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M8" s="7">
+        <v>295</v>
+      </c>
+      <c r="N8" s="7">
+        <v>205893</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3887</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="M8" s="7">
-        <v>14</v>
-      </c>
-      <c r="N8" s="7">
-        <v>8148</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,49 +5261,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>232378</v>
+        <v>12060</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H10" s="7">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7">
+        <v>13629</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>36</v>
+      </c>
+      <c r="N10" s="7">
+        <v>25689</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H10" s="7">
-        <v>253</v>
-      </c>
-      <c r="I10" s="7">
-        <v>175187</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M10" s="7">
-        <v>564</v>
-      </c>
-      <c r="N10" s="7">
-        <v>407565</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,49 +5312,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>12060</v>
+        <v>232378</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H11" s="7">
+        <v>253</v>
+      </c>
+      <c r="I11" s="7">
+        <v>175187</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13629</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>564</v>
+      </c>
+      <c r="N11" s="7">
+        <v>407565</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="M11" s="7">
-        <v>36</v>
-      </c>
-      <c r="N11" s="7">
-        <v>25689</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,49 +5416,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>160013</v>
+        <v>11644</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9065</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H13" s="7">
-        <v>211</v>
-      </c>
-      <c r="I13" s="7">
-        <v>157216</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="M13" s="7">
-        <v>418</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>317228</v>
+        <v>20710</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,49 +5467,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7">
-        <v>11644</v>
+        <v>160013</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H14" s="7">
+        <v>211</v>
+      </c>
+      <c r="I14" s="7">
+        <v>157216</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9065</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>26</v>
+        <v>418</v>
       </c>
       <c r="N14" s="7">
-        <v>20710</v>
+        <v>317228</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,49 +5571,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>224</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>165253</v>
+        <v>6692</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="7">
+        <v>14</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10667</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M16" s="7">
+        <v>23</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17358</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="H16" s="7">
-        <v>222</v>
-      </c>
-      <c r="I16" s="7">
-        <v>159380</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M16" s="7">
-        <v>446</v>
-      </c>
-      <c r="N16" s="7">
-        <v>324634</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,49 +5622,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D17" s="7">
-        <v>6692</v>
+        <v>165253</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="7">
+        <v>222</v>
+      </c>
+      <c r="I17" s="7">
+        <v>159380</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M17" s="7">
+        <v>446</v>
+      </c>
+      <c r="N17" s="7">
+        <v>324634</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10667</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M17" s="7">
-        <v>23</v>
-      </c>
-      <c r="N17" s="7">
-        <v>17358</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,49 +5726,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>899</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>677206</v>
+        <v>34657</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H19" s="7">
+        <v>54</v>
+      </c>
+      <c r="I19" s="7">
+        <v>38864</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="M19" s="7">
+        <v>101</v>
+      </c>
+      <c r="N19" s="7">
+        <v>73522</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="H19" s="7">
-        <v>867</v>
-      </c>
-      <c r="I19" s="7">
-        <v>604716</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1766</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1281920</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,49 +5777,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>47</v>
+        <v>899</v>
       </c>
       <c r="D20" s="7">
-        <v>34657</v>
+        <v>677206</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H20" s="7">
+        <v>867</v>
+      </c>
+      <c r="I20" s="7">
+        <v>604716</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1766</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1281920</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="H20" s="7">
-        <v>54</v>
-      </c>
-      <c r="I20" s="7">
-        <v>38864</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="M20" s="7">
-        <v>101</v>
-      </c>
-      <c r="N20" s="7">
-        <v>73522</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,6 +5871,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D950A80-71C8-4745-AF9C-8AF434135B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D518535-3971-4314-9E65-8A1BFFEC56BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{45D458E9-AB6D-4BA4-BBEE-455F77D301FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67E406AF-FD72-4D61-BFEF-96775F5C7BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,68%</t>
+    <t>17,68%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>16,01%</t>
+    <t>21,12%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>12,19%</t>
+    <t>13,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>95,68%</t>
   </si>
   <si>
-    <t>73,32%</t>
+    <t>82,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,1036 +110,1018 @@
     <t>96,22%</t>
   </si>
   <si>
-    <t>83,99%</t>
+    <t>78,88%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>87,81%</t>
+    <t>86,42%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>8,73%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -1148,91 +1130,109 @@
     <t>90,8%</t>
   </si>
   <si>
-    <t>91,27%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
+    <t>7,71%</t>
+  </si>
+  <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>3,64%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
+    <t>92,29%</t>
+  </si>
+  <si>
     <t>93,73%</t>
   </si>
   <si>
-    <t>96,36%</t>
+    <t>96,45%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>7,92%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>92,08%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C250C7F-92CF-432E-848D-77B4DBE7EE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3B4184-8A20-42A5-B43D-938F04267A49}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2406,10 +2406,10 @@
         <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2418,13 +2418,13 @@
         <v>24559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2439,13 @@
         <v>188574</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>241</v>
@@ -2454,13 +2454,13 @@
         <v>184336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>518</v>
@@ -2469,13 +2469,13 @@
         <v>372911</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>49879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -2558,13 +2558,13 @@
         <v>45821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -2573,13 +2573,13 @@
         <v>95700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2594,13 @@
         <v>635144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>895</v>
@@ -2609,13 +2609,13 @@
         <v>599219</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>1851</v>
@@ -2624,13 +2624,13 @@
         <v>1234363</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3EE27F-72B1-48EA-B92F-8AB1FE559433}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28111EBE-FC01-49C6-BB05-42A2E86D1FA0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3296,13 +3296,13 @@
         <v>11569</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3311,13 +3311,13 @@
         <v>9307</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -3326,13 +3326,13 @@
         <v>20876</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3347,13 @@
         <v>140724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
@@ -3362,13 +3362,13 @@
         <v>135351</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>431</v>
@@ -3377,13 +3377,13 @@
         <v>276075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3451,13 @@
         <v>9414</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3466,13 +3466,13 @@
         <v>4681</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3481,13 +3481,13 @@
         <v>14096</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3502,13 @@
         <v>186852</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>246</v>
@@ -3517,13 +3517,13 @@
         <v>188866</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>500</v>
@@ -3532,13 +3532,13 @@
         <v>375717</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3606,13 @@
         <v>48684</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -3621,13 +3621,13 @@
         <v>36672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>120</v>
@@ -3636,13 +3636,13 @@
         <v>85356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3657,13 @@
         <v>654015</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>901</v>
@@ -3672,13 +3672,13 @@
         <v>626219</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>1837</v>
@@ -3687,13 +3687,13 @@
         <v>1280235</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,7 +3770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B431A0-1BE3-48C6-ABA0-66B68DE4A5C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3E616C-4AAC-4FF0-B166-8132DD671C0E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3787,7 +3787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3894,13 +3894,13 @@
         <v>671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3909,13 +3909,13 @@
         <v>2066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3924,13 +3924,13 @@
         <v>2737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,10 +3945,10 @@
         <v>22108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3960,10 +3960,10 @@
         <v>19417</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3975,13 +3975,13 @@
         <v>41525</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4049,13 @@
         <v>4694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4064,13 +4064,13 @@
         <v>4778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4082,10 +4082,10 @@
         <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4100,13 @@
         <v>111637</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -4115,13 +4115,13 @@
         <v>98409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>293</v>
@@ -4133,10 +4133,10 @@
         <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4204,13 @@
         <v>12131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4219,13 +4219,13 @@
         <v>13902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4234,13 +4234,13 @@
         <v>26032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4255,13 @@
         <v>198546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>288</v>
@@ -4270,13 +4270,13 @@
         <v>179610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>582</v>
@@ -4285,13 +4285,13 @@
         <v>378157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4359,13 @@
         <v>5630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4374,13 +4374,13 @@
         <v>5689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4389,13 +4389,13 @@
         <v>11320</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4410,13 @@
         <v>154797</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>235</v>
@@ -4425,13 +4425,13 @@
         <v>142478</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M14" s="7">
         <v>465</v>
@@ -4514,13 +4514,13 @@
         <v>10590</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4529,13 +4529,13 @@
         <v>14499</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4544,13 +4544,13 @@
         <v>25089</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4565,13 @@
         <v>180091</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>242</v>
@@ -4580,13 +4580,13 @@
         <v>177984</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>496</v>
@@ -4595,13 +4595,13 @@
         <v>358074</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4669,13 @@
         <v>33716</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4684,13 +4684,13 @@
         <v>40933</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -4699,13 +4699,13 @@
         <v>74649</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4720,13 @@
         <v>667179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>929</v>
@@ -4735,13 +4735,13 @@
         <v>617898</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>1883</v>
@@ -4750,13 +4750,13 @@
         <v>1285077</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,7 +4833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25057408-EBCC-4E0A-B946-3C5A0673735F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD39752-6FC1-46A1-BE5C-E1AC91BAD732}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4850,7 +4850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4960,10 +4960,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4972,13 +4972,13 @@
         <v>1617</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4987,13 +4987,13 @@
         <v>1617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,7 +5011,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5023,10 +5023,10 @@
         <v>15170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5038,10 +5038,10 @@
         <v>26600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5112,13 +5112,13 @@
         <v>4262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5127,13 +5127,13 @@
         <v>3887</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -5142,13 +5142,13 @@
         <v>8148</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5163,13 @@
         <v>108130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>155</v>
@@ -5178,13 +5178,13 @@
         <v>97762</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>295</v>
@@ -5193,13 +5193,13 @@
         <v>205893</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,13 +5267,13 @@
         <v>12060</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5282,13 +5282,13 @@
         <v>13629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5297,13 +5297,13 @@
         <v>25689</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5318,13 @@
         <v>232378</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>253</v>
@@ -5333,13 +5333,13 @@
         <v>175187</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>564</v>
@@ -5348,13 +5348,13 @@
         <v>407565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5422,13 @@
         <v>11644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5437,13 +5437,13 @@
         <v>9065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5455,10 +5455,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5473,13 @@
         <v>160013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
@@ -5488,13 +5488,13 @@
         <v>157216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>418</v>
@@ -5506,10 +5506,10 @@
         <v>40</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5577,13 @@
         <v>6692</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5592,13 +5592,13 @@
         <v>10667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5607,13 +5607,13 @@
         <v>17358</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,10 +5628,10 @@
         <v>165253</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>149</v>
@@ -5643,13 +5643,13 @@
         <v>159380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>446</v>
@@ -5658,13 +5658,13 @@
         <v>324634</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5732,13 @@
         <v>34657</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -5747,13 +5747,13 @@
         <v>38864</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -5762,13 +5762,13 @@
         <v>73522</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5783,13 @@
         <v>677206</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>867</v>
@@ -5798,13 +5798,13 @@
         <v>604716</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>1766</v>

--- a/data/trans_orig/IP2002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D518535-3971-4314-9E65-8A1BFFEC56BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F61EEE-4F80-4DD8-899C-02140B02F9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67E406AF-FD72-4D61-BFEF-96775F5C7BEC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ABFC23F3-53F0-43F5-8BC3-42B6FFF85C00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="348">
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1168 +68,1018 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2016 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -1644,8 +1494,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3B4184-8A20-42A5-B43D-938F04267A49}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C704410-3A44-4EF7-91EA-22DE50DE51B5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1762,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>961</v>
+        <v>7395</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1777,85 +1627,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>833</v>
+        <v>11203</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>1794</v>
+        <v>18598</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>177</v>
+      </c>
+      <c r="D5" s="7">
+        <v>121611</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>197</v>
+      </c>
+      <c r="I5" s="7">
+        <v>132304</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>374</v>
+      </c>
+      <c r="N5" s="7">
+        <v>253915</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
-        <v>21287</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7">
-        <v>21177</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>55</v>
-      </c>
-      <c r="N5" s="7">
-        <v>42464</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,153 +1714,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>22248</v>
+        <v>129006</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="I6" s="7">
-        <v>22010</v>
+        <v>143507</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>57</v>
+        <v>401</v>
       </c>
       <c r="N6" s="7">
-        <v>44258</v>
+        <v>272513</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>10242</v>
+        <v>15327</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>6562</v>
+        <v>17732</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>16804</v>
+        <v>33059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="D8" s="7">
-        <v>111017</v>
+        <v>170457</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="I8" s="7">
-        <v>100434</v>
+        <v>186490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>319</v>
+        <v>557</v>
       </c>
       <c r="N8" s="7">
-        <v>211452</v>
+        <v>356948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,153 +1869,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="D9" s="7">
-        <v>121259</v>
+        <v>185784</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="I9" s="7">
-        <v>106996</v>
+        <v>204222</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>344</v>
+        <v>607</v>
       </c>
       <c r="N9" s="7">
-        <v>228256</v>
+        <v>390007</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>17732</v>
+        <v>7917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>15327</v>
+        <v>11566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>33059</v>
+        <v>19483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="D11" s="7">
-        <v>186490</v>
+        <v>122815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="I11" s="7">
-        <v>170457</v>
+        <v>127776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>557</v>
+        <v>402</v>
       </c>
       <c r="N11" s="7">
-        <v>356948</v>
+        <v>250591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,153 +2024,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="D12" s="7">
-        <v>204222</v>
+        <v>130732</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="I12" s="7">
-        <v>185784</v>
+        <v>139342</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>607</v>
+        <v>433</v>
       </c>
       <c r="N12" s="7">
-        <v>390007</v>
+        <v>270074</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15182</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9378</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="7">
+        <v>34</v>
+      </c>
+      <c r="N13" s="7">
+        <v>24559</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7">
-        <v>11566</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7917</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="7">
-        <v>31</v>
-      </c>
-      <c r="N13" s="7">
-        <v>19483</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>127776</v>
+        <v>184336</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="I14" s="7">
-        <v>122815</v>
+        <v>188574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>402</v>
+        <v>518</v>
       </c>
       <c r="N14" s="7">
-        <v>250591</v>
+        <v>372911</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,153 +2179,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>139342</v>
+        <v>199518</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="I15" s="7">
-        <v>130732</v>
+        <v>197952</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>433</v>
+        <v>552</v>
       </c>
       <c r="N15" s="7">
-        <v>270074</v>
+        <v>397470</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>9378</v>
+        <v>45821</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7">
-        <v>15182</v>
+        <v>49879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="N16" s="7">
-        <v>24559</v>
+        <v>95700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>277</v>
+        <v>895</v>
       </c>
       <c r="D17" s="7">
-        <v>188574</v>
+        <v>599219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>241</v>
+        <v>956</v>
       </c>
       <c r="I17" s="7">
-        <v>184336</v>
+        <v>635144</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>518</v>
+        <v>1851</v>
       </c>
       <c r="N17" s="7">
-        <v>372911</v>
+        <v>1234363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,217 +2334,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>291</v>
+        <v>963</v>
       </c>
       <c r="D18" s="7">
-        <v>197952</v>
+        <v>645040</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>1030</v>
       </c>
       <c r="I18" s="7">
-        <v>199518</v>
+        <v>685023</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>552</v>
+        <v>1993</v>
       </c>
       <c r="N18" s="7">
-        <v>397470</v>
+        <v>1330063</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>74</v>
-      </c>
-      <c r="D19" s="7">
-        <v>49879</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>68</v>
-      </c>
-      <c r="I19" s="7">
-        <v>45821</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>142</v>
-      </c>
-      <c r="N19" s="7">
-        <v>95700</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>956</v>
-      </c>
-      <c r="D20" s="7">
-        <v>635144</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>895</v>
-      </c>
-      <c r="I20" s="7">
-        <v>599219</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1851</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1234363</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1030</v>
-      </c>
-      <c r="D21" s="7">
-        <v>685023</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>963</v>
-      </c>
-      <c r="I21" s="7">
-        <v>645040</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1993</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1330063</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2707,8 +2401,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28111EBE-FC01-49C6-BB05-42A2E86D1FA0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F659CD8-3114-4B8F-A0A8-DE74FCF35C9A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2724,7 +2418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2825,100 +2519,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>2156</v>
+        <v>6665</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>1821</v>
+        <v>12656</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>3977</v>
+        <v>19321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>21546</v>
+        <v>126503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="I5" s="7">
-        <v>18976</v>
+        <v>128731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>348</v>
       </c>
       <c r="N5" s="7">
-        <v>40522</v>
+        <v>255234</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,153 +2621,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="D6" s="7">
-        <v>23702</v>
+        <v>133168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="I6" s="7">
-        <v>20797</v>
+        <v>141387</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>374</v>
       </c>
       <c r="N6" s="7">
-        <v>44499</v>
+        <v>274555</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>10500</v>
+        <v>16018</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>4844</v>
+        <v>15044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>15344</v>
+        <v>31062</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>107185</v>
+        <v>175501</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>150</v>
+        <v>286</v>
       </c>
       <c r="I8" s="7">
-        <v>107527</v>
+        <v>197709</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>302</v>
+        <v>558</v>
       </c>
       <c r="N8" s="7">
-        <v>214712</v>
+        <v>373210</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,153 +2776,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="D9" s="7">
-        <v>117685</v>
+        <v>191519</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="I9" s="7">
-        <v>112371</v>
+        <v>212753</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>324</v>
+        <v>604</v>
       </c>
       <c r="N9" s="7">
-        <v>230056</v>
+        <v>404272</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>15044</v>
+        <v>9307</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>16018</v>
+        <v>11569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>31062</v>
+        <v>20876</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>197709</v>
+        <v>135351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>175501</v>
+        <v>140724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
-        <v>558</v>
+        <v>431</v>
       </c>
       <c r="N11" s="7">
-        <v>373210</v>
+        <v>276075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,153 +2931,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>212753</v>
+        <v>144658</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>191519</v>
+        <v>152293</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>604</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>404272</v>
+        <v>296951</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>11569</v>
+        <v>4681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>9307</v>
+        <v>9414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>20876</v>
+        <v>14096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>140724</v>
+        <v>188866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="H14" s="7">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="I14" s="7">
-        <v>135351</v>
+        <v>186852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="N14" s="7">
-        <v>276075</v>
+        <v>375717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,153 +3086,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>152293</v>
+        <v>193547</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="I15" s="7">
-        <v>144658</v>
+        <v>196266</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="N15" s="7">
-        <v>296951</v>
+        <v>389813</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>9414</v>
+        <v>36672</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>4681</v>
+        <v>48684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="N16" s="7">
-        <v>14096</v>
+        <v>85356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>254</v>
+        <v>901</v>
       </c>
       <c r="D17" s="7">
-        <v>186852</v>
+        <v>626219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>246</v>
+        <v>936</v>
       </c>
       <c r="I17" s="7">
-        <v>188866</v>
+        <v>654015</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>500</v>
+        <v>1837</v>
       </c>
       <c r="N17" s="7">
-        <v>375717</v>
+        <v>1280235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,217 +3241,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>266</v>
+        <v>954</v>
       </c>
       <c r="D18" s="7">
-        <v>196266</v>
+        <v>662891</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>252</v>
+        <v>1003</v>
       </c>
       <c r="I18" s="7">
-        <v>193547</v>
+        <v>702699</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>518</v>
+        <v>1957</v>
       </c>
       <c r="N18" s="7">
-        <v>389813</v>
+        <v>1365591</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7">
-        <v>48684</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>36672</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>120</v>
-      </c>
-      <c r="N19" s="7">
-        <v>85356</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>936</v>
-      </c>
-      <c r="D20" s="7">
-        <v>654015</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="7">
-        <v>901</v>
-      </c>
-      <c r="I20" s="7">
-        <v>626219</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1837</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1280235</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1003</v>
-      </c>
-      <c r="D21" s="7">
-        <v>702699</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>954</v>
-      </c>
-      <c r="I21" s="7">
-        <v>662891</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1957</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1365591</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3770,8 +3308,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3E616C-4AAC-4FF0-B166-8132DD671C0E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356B9C26-71B6-4331-8F47-D6E7C1B0BFA4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3787,7 +3325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,100 +3426,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>671</v>
+        <v>6844</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>2066</v>
+        <v>5365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>2737</v>
+        <v>12209</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="D5" s="7">
-        <v>22108</v>
+        <v>117825</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I5" s="7">
-        <v>19417</v>
+        <v>133745</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>340</v>
       </c>
       <c r="N5" s="7">
-        <v>41525</v>
+        <v>251570</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,153 +3528,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D6" s="7">
-        <v>22779</v>
+        <v>124669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>21483</v>
+        <v>139110</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="N6" s="7">
-        <v>44262</v>
+        <v>263779</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>4694</v>
+        <v>13902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>4778</v>
+        <v>12131</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>9472</v>
+        <v>26032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="D8" s="7">
-        <v>111637</v>
+        <v>179610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="H8" s="7">
-        <v>143</v>
+        <v>294</v>
       </c>
       <c r="I8" s="7">
-        <v>98409</v>
+        <v>198546</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>293</v>
+        <v>582</v>
       </c>
       <c r="N8" s="7">
-        <v>210045</v>
+        <v>378157</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,153 +3683,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="D9" s="7">
-        <v>116331</v>
+        <v>193512</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="I9" s="7">
-        <v>103187</v>
+        <v>210677</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>306</v>
+        <v>621</v>
       </c>
       <c r="N9" s="7">
-        <v>219517</v>
+        <v>404189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5689</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5630</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="7">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
-        <v>12131</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H10" s="7">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13902</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M10" s="7">
-        <v>39</v>
-      </c>
       <c r="N10" s="7">
-        <v>26032</v>
+        <v>11320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="D11" s="7">
-        <v>198546</v>
+        <v>142478</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>179610</v>
+        <v>154797</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>582</v>
+        <v>465</v>
       </c>
       <c r="N11" s="7">
-        <v>378157</v>
+        <v>297274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,153 +3838,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7">
-        <v>210677</v>
+        <v>148167</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>193512</v>
+        <v>160427</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>621</v>
+        <v>482</v>
       </c>
       <c r="N12" s="7">
-        <v>404189</v>
+        <v>308594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>5630</v>
+        <v>14499</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>5689</v>
+        <v>10590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>11320</v>
+        <v>25089</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D14" s="7">
-        <v>154797</v>
+        <v>177984</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="I14" s="7">
-        <v>142478</v>
+        <v>180091</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="N14" s="7">
-        <v>297274</v>
+        <v>358074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,153 +3993,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>160427</v>
+        <v>192483</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>148167</v>
+        <v>190681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="N15" s="7">
-        <v>308594</v>
+        <v>383163</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>10590</v>
+        <v>40933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>14499</v>
+        <v>33716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="N16" s="7">
-        <v>25089</v>
+        <v>74649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>254</v>
+        <v>929</v>
       </c>
       <c r="D17" s="7">
-        <v>180091</v>
+        <v>617898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
-        <v>242</v>
+        <v>954</v>
       </c>
       <c r="I17" s="7">
-        <v>177984</v>
+        <v>667179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>123</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
-        <v>496</v>
+        <v>1883</v>
       </c>
       <c r="N17" s="7">
-        <v>358074</v>
+        <v>1285077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,217 +4148,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>988</v>
       </c>
       <c r="D18" s="7">
-        <v>190681</v>
+        <v>658831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>192483</v>
+        <v>700895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>529</v>
+        <v>1988</v>
       </c>
       <c r="N18" s="7">
-        <v>383163</v>
+        <v>1359726</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>46</v>
-      </c>
-      <c r="D19" s="7">
-        <v>33716</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H19" s="7">
-        <v>59</v>
-      </c>
-      <c r="I19" s="7">
-        <v>40933</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M19" s="7">
-        <v>105</v>
-      </c>
-      <c r="N19" s="7">
-        <v>74649</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>954</v>
-      </c>
-      <c r="D20" s="7">
-        <v>667179</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H20" s="7">
-        <v>929</v>
-      </c>
-      <c r="I20" s="7">
-        <v>617898</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1883</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1285077</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="7">
-        <v>700895</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>988</v>
-      </c>
-      <c r="I21" s="7">
-        <v>658831</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1988</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1359726</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4833,8 +4215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD39752-6FC1-46A1-BE5C-E1AC91BAD732}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AEA3FF-1308-49A7-BD5E-00854E057DCF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4850,7 +4232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4951,100 +4333,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5451</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>1617</v>
+        <v>4699</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>1617</v>
+        <v>10150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7">
-        <v>11430</v>
+        <v>109619</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I5" s="7">
-        <v>15170</v>
+        <v>132058</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="N5" s="7">
-        <v>26600</v>
+        <v>241677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,153 +4435,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="D6" s="7">
-        <v>11430</v>
+        <v>115070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>136757</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="N6" s="7">
-        <v>28217</v>
+        <v>251827</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>4262</v>
+        <v>14020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>3887</v>
+        <v>12437</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>8148</v>
+        <v>26457</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="D8" s="7">
-        <v>108130</v>
+        <v>172878</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>97762</v>
+        <v>236705</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
-        <v>295</v>
+        <v>564</v>
       </c>
       <c r="N8" s="7">
-        <v>205893</v>
+        <v>409583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,153 +4590,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="D9" s="7">
-        <v>112392</v>
+        <v>186898</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="I9" s="7">
-        <v>101649</v>
+        <v>249142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>600</v>
       </c>
       <c r="N9" s="7">
-        <v>214041</v>
+        <v>436040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>12060</v>
+        <v>9000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>13629</v>
+        <v>13280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>25689</v>
+        <v>22280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>232378</v>
+        <v>178987</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="I11" s="7">
-        <v>175187</v>
+        <v>170423</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
-        <v>564</v>
+        <v>418</v>
       </c>
       <c r="N11" s="7">
-        <v>407565</v>
+        <v>349410</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,54 +4745,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>244438</v>
+        <v>187987</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>188816</v>
+        <v>183703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="N12" s="7">
-        <v>433254</v>
+        <v>371690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5419,97 +4801,97 @@
         <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>11644</v>
+        <v>10379</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>9065</v>
+        <v>7101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>20710</v>
+        <v>17480</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>357</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7">
-        <v>160013</v>
+        <v>155737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="I14" s="7">
-        <v>157216</v>
+        <v>170762</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="N14" s="7">
-        <v>317228</v>
+        <v>326499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,153 +4900,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>171657</v>
+        <v>166116</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7">
-        <v>166281</v>
+        <v>177863</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N15" s="7">
-        <v>337938</v>
+        <v>343979</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>6692</v>
+        <v>38849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>10667</v>
+        <v>37518</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="N16" s="7">
-        <v>17358</v>
+        <v>76367</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>224</v>
+        <v>867</v>
       </c>
       <c r="D17" s="7">
-        <v>165253</v>
+        <v>617222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="H17" s="7">
-        <v>222</v>
+        <v>899</v>
       </c>
       <c r="I17" s="7">
-        <v>159380</v>
+        <v>709947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
-        <v>446</v>
+        <v>1766</v>
       </c>
       <c r="N17" s="7">
-        <v>324634</v>
+        <v>1327169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,217 +5055,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>233</v>
+        <v>921</v>
       </c>
       <c r="D18" s="7">
-        <v>171945</v>
+        <v>656071</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>236</v>
+        <v>946</v>
       </c>
       <c r="I18" s="7">
-        <v>170047</v>
+        <v>747465</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>469</v>
+        <v>1867</v>
       </c>
       <c r="N18" s="7">
-        <v>341992</v>
+        <v>1403536</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7">
-        <v>34657</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H19" s="7">
-        <v>54</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38864</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="M19" s="7">
-        <v>101</v>
-      </c>
-      <c r="N19" s="7">
-        <v>73522</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>899</v>
-      </c>
-      <c r="D20" s="7">
-        <v>677206</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H20" s="7">
-        <v>867</v>
-      </c>
-      <c r="I20" s="7">
-        <v>604716</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1766</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1281920</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>946</v>
-      </c>
-      <c r="D21" s="7">
-        <v>711863</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>921</v>
-      </c>
-      <c r="I21" s="7">
-        <v>643580</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1867</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1355442</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
